--- a/excel_reports/geofences.xlsx
+++ b/excel_reports/geofences.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\OneDrive\Escritorio\repos\resumenipa\excel_reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A25FA2-C80F-477F-B782-E77D3AD96455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>dId</t>
   </si>
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +158,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +210,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +474,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -470,8 +494,14 @@
       <c r="D2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -484,8 +514,14 @@
       <c r="D3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -498,8 +534,14 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -512,8 +554,14 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -526,8 +574,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -540,8 +594,14 @@
       <c r="D7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -554,8 +614,14 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -568,8 +634,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -582,8 +654,14 @@
       <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -594,6 +672,12 @@
         <v>22</v>
       </c>
       <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
     </row>
